--- a/atomica/library/service_framework.xlsx
+++ b/atomica/library/service_framework.xlsx
@@ -1,44 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E752C1-2F9C-49AB-B50A-6C1FC4C73326}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF8EB63-5D48-4ACC-B958-8B4314017A3E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="9" r:id="rId1"/>
-    <sheet name="Databook Pages" sheetId="7" r:id="rId2"/>
-    <sheet name="Compartments" sheetId="2" r:id="rId3"/>
-    <sheet name="Transitions" sheetId="3" r:id="rId4"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId5"/>
+    <sheet name="About" sheetId="1" r:id="rId1"/>
+    <sheet name="Databook Pages" sheetId="2" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="3" r:id="rId3"/>
+    <sheet name="Transitions" sheetId="4" r:id="rId4"/>
+    <sheet name="Characteristics" sheetId="5" r:id="rId5"/>
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
-    <sheet name="Cascades" sheetId="8" r:id="rId7"/>
+    <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A35932FE-AB8C-44E7-9A07-A34A1B2CE922}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a custom databook sheet.
 Normally, when constructing a databook, data-input sections for
@@ -52,14 +60,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3CA980EF-31C1-40E9-818D-71875E939B5F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the title of a custom databook sheet.
 Normally, when constructing a databook, data-input sections for
@@ -77,17 +86,18 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a compartment within a
 population cascade, a state that an entity can exist in that is
@@ -105,14 +115,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'display name' of a compartment within a
 population cascade, a state that an entity can exist in that is
@@ -131,14 +142,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for tagging a compartment as an abstract 'source' state,
 from which entities can flow into the rest of a network.
@@ -157,14 +169,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for tagging a compartment as an abstract 'sink' state,
 into which entities can flow from the rest of a network.
@@ -182,14 +195,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for tagging a compartment as an abstract 'junction'
 state, commonly used to control the aggregation and disaggregation of
@@ -210,14 +224,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column determines how important user-provided values for this
 compartment are to setting up the initial state of a model.
@@ -238,14 +253,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5F20F1A1-E77C-42AB-9EFA-D9CD4786F3BF}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column optionally marks whether a data-input section should
 appear for this compartment in a custom databook sheet, if allowed
@@ -264,17 +280,18 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a cascade characteristic,
 which is a set of compartments or, recursively, other characteristics.
@@ -292,14 +309,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'display name' of a cascade characteristic,
 which is a set of compartments or, recursively, other characteristics.
@@ -318,14 +336,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column determines how important user-provided values for this
 characteristic are to setting up the initial state of a model.
@@ -345,14 +364,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column, and any that immediately follow without a specified
 header, is for the 'components' of a cascade characteristic.
@@ -371,27 +391,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'denominator' attribute for a 'charac' item.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column currently denotes whether a databook should request
 historical values from the user for this characteristic.
@@ -406,17 +428,18 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>None</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column is for the 'code name' of a cascade parameter.
 The base case is referred to as a transition parameter, referring to
@@ -435,112 +458,23 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">This column is for the 'display name' of a cascade parameter.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The base case is referred to as a transition parameter, referring to
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the flow of entities between compartments.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">However, due to the option of specifying transition rates as functions
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">of other parameters, a parameter can be any variable that directly or
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">indirectly affects the rate of population change in the network.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples include 'Birth Rate', 'Treatment Uptake Rate', 'Internet
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Coverage', etc.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: A display name is a representative label that users interface
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">with (e.g. in databooks and plots).
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>It should be in title or sentence case.</t>
+          <t>This column is for the 'display name' of a cascade parameter.
+The base case is referred to as a transition parameter, referring to
+the flow of entities between compartments.
+However, due to the option of specifying transition rates as functions
+of other parameters, a parameter can be any variable that directly or
+indirectly affects the rate of population change in the network.
+Examples include 'Birth Rate', 'Treatment Uptake Rate', 'Internet
+Coverage', etc.
+Note: A display name is a representative label that users interface
+with (e.g. in databooks and plots).
+It should be in title or sentence case.</t>
         </r>
       </text>
     </comment>
@@ -548,45 +482,29 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This column defines a 'format' attribute for a 'par' item.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">This column currently denotes whether a databook should request
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">historical values from the user for this parameter.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A value of '-1' suppresses it from appearing in the databook.</t>
+          <t>This column currently denotes whether a databook should request
+historical values from the user for this parameter.
+A value of '-1' suppresses it from appearing in the databook.</t>
         </r>
       </text>
     </comment>
@@ -597,6 +515,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Service Modalities cascade</t>
+  </si>
+  <si>
+    <t>Datasheet Code Name</t>
+  </si>
+  <si>
+    <t>Datasheet Title</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
     <t>Code Name</t>
   </si>
   <si>
@@ -615,162 +557,168 @@
     <t>Setup Weight</t>
   </si>
   <si>
+    <t>Databook Page</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
+    <t>unaware</t>
+  </si>
+  <si>
+    <t>Unaware of own need</t>
+  </si>
+  <si>
+    <t>unlinked</t>
+  </si>
+  <si>
+    <t>Aware but not linked to services</t>
+  </si>
+  <si>
+    <t>untx</t>
+  </si>
+  <si>
+    <t>Linked to service provider</t>
+  </si>
+  <si>
+    <t>txf</t>
+  </si>
+  <si>
+    <t>Receiving services</t>
+  </si>
+  <si>
+    <t>txs</t>
+  </si>
+  <si>
+    <t>Successful outcome</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>acq_rate</t>
+  </si>
+  <si>
+    <t>num_screen</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>num_diag</t>
+  </si>
+  <si>
+    <t>num_treat</t>
+  </si>
+  <si>
+    <t>treat_suc</t>
+  </si>
+  <si>
+    <t>treat_fail</t>
+  </si>
+  <si>
     <t>Components</t>
   </si>
   <si>
     <t>Denominator</t>
   </si>
   <si>
+    <t>ch_all</t>
+  </si>
+  <si>
+    <t>All people</t>
+  </si>
+  <si>
+    <t>unaware,unlinked,untx,txf,txs</t>
+  </si>
+  <si>
+    <t>ch_aware</t>
+  </si>
+  <si>
+    <t>People aware of need</t>
+  </si>
+  <si>
+    <t>unlinked,untx,txf,txs</t>
+  </si>
+  <si>
+    <t>ch_linked</t>
+  </si>
+  <si>
+    <t>People linked to services</t>
+  </si>
+  <si>
+    <t>untx,txf,txs</t>
+  </si>
+  <si>
+    <t>ch_tx</t>
+  </si>
+  <si>
+    <t>People receiving services</t>
+  </si>
+  <si>
+    <t>txf,txs</t>
+  </si>
+  <si>
+    <t>ch_succ</t>
+  </si>
+  <si>
+    <t>People with successful outcomes</t>
+  </si>
+  <si>
+    <t>ch_propaware</t>
+  </si>
+  <si>
+    <t>Proportion aware of need</t>
+  </si>
+  <si>
+    <t>ch_proplinked</t>
+  </si>
+  <si>
+    <t>Proportion linked to services</t>
+  </si>
+  <si>
+    <t>ch_proptx</t>
+  </si>
+  <si>
+    <t>Proportion receiving services</t>
+  </si>
+  <si>
+    <t>ch_propsucc</t>
+  </si>
+  <si>
+    <t>Proportion with successful outcomes</t>
+  </si>
+  <si>
     <t>Format</t>
   </si>
   <si>
-    <t>unaware</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>unlinked</t>
-  </si>
-  <si>
-    <t>untx</t>
-  </si>
-  <si>
-    <t>txf</t>
-  </si>
-  <si>
-    <t>txs</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>acq_rate</t>
-  </si>
-  <si>
-    <t>num_screen</t>
-  </si>
-  <si>
-    <t>num_diag</t>
-  </si>
-  <si>
-    <t>num_treat</t>
-  </si>
-  <si>
-    <t>treat_suc</t>
-  </si>
-  <si>
-    <t>treat_fail</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>ch_all</t>
-  </si>
-  <si>
-    <t>ch_tx</t>
-  </si>
-  <si>
-    <t>ch_succ</t>
-  </si>
-  <si>
-    <t>ch_proptx</t>
-  </si>
-  <si>
-    <t>ch_propsucc</t>
-  </si>
-  <si>
-    <t>All people</t>
-  </si>
-  <si>
-    <t>unaware,unlinked,untx,txf,txs</t>
-  </si>
-  <si>
-    <t>unlinked,untx,txf,txs</t>
-  </si>
-  <si>
-    <t>untx,txf,txs</t>
-  </si>
-  <si>
-    <t>People receiving services</t>
-  </si>
-  <si>
-    <t>People aware of need</t>
-  </si>
-  <si>
-    <t>Receiving services</t>
-  </si>
-  <si>
-    <t>Successful outcome</t>
-  </si>
-  <si>
-    <t>Linked to service provider</t>
-  </si>
-  <si>
-    <t>Unaware of own need</t>
-  </si>
-  <si>
-    <t>Aware but not linked to services</t>
-  </si>
-  <si>
-    <t>txf,txs</t>
-  </si>
-  <si>
-    <t>People with successful outcomes</t>
-  </si>
-  <si>
-    <t>ch_aware</t>
-  </si>
-  <si>
-    <t>ch_linked</t>
-  </si>
-  <si>
-    <t>ch_propaware</t>
-  </si>
-  <si>
-    <t>ch_proplinked</t>
-  </si>
-  <si>
-    <t>Proportion aware of need</t>
-  </si>
-  <si>
-    <t>Proportion linked to services</t>
-  </si>
-  <si>
-    <t>People linked to services</t>
-  </si>
-  <si>
-    <t>Proportion receiving services</t>
-  </si>
-  <si>
-    <t>Proportion with successful outcomes</t>
+    <t>Calibrate</t>
   </si>
   <si>
     <t>Number of new cases (annual)</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>Number becoming aware of need (annual)</t>
   </si>
   <si>
     <t>Number linked to services (annual)</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>Number initiated onto services (annual)</t>
   </si>
   <si>
@@ -780,53 +728,23 @@
     <t>probability</t>
   </si>
   <si>
+    <t>Probability of successful outcome among those receiving services</t>
+  </si>
+  <si>
     <t>Background mortality rate</t>
   </si>
   <si>
-    <t>Probability of successful outcome among those receiving services</t>
-  </si>
-  <si>
-    <t>Datasheet Code Name</t>
-  </si>
-  <si>
-    <t>Datasheet Title</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Databook Page</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
     <t>Constituents</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Service Modalities cascade</t>
-  </si>
-  <si>
-    <t>Calibrate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,24 +753,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -892,23 +798,23 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1330,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C3C9F0-B525-4414-A6DE-1E79B9FFE816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1341,18 +1247,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B013D5-73FB-4398-93EB-8CBA2BAED079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1376,18 +1282,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1417,42 +1323,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1461,134 +1367,134 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1597,7 +1503,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:E8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1607,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1657,7 +1563,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1673,13 +1579,13 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1691,12 +1597,12 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,11 +1615,11 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,10 +1633,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1743,11 +1649,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1812,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1831,58 +1737,58 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,133 +1796,133 @@
         <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,132 +1973,132 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,7 +2121,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2226,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60F2DB1-6AB5-492C-9994-E03A25987B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2241,31 +2147,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>46</v>
@@ -2273,18 +2179,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
